--- a/data/trans_dic/Q23_tabaco_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q23_tabaco_R2-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4203455722153774</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3730149062740917</v>
+        <v>0.3730149062740916</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2671314993333962</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3434068264456121</v>
+        <v>0.3479904648716813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3471572319891733</v>
+        <v>0.3445977581167078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3732999878128699</v>
+        <v>0.3694741526919947</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3197521342433187</v>
+        <v>0.321298269767156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2015316590946269</v>
+        <v>0.2042117405195446</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1603064950189448</v>
+        <v>0.1602843851429084</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2002296679352391</v>
+        <v>0.1992360834759867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.120771676661186</v>
+        <v>0.1206130574951907</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3214766778260117</v>
+        <v>0.3123741812722838</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2984504767124274</v>
+        <v>0.2970683676156981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.322683878142714</v>
+        <v>0.3192621810167314</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2544552709035136</v>
+        <v>0.2570852223712497</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4483660079544298</v>
+        <v>0.4520064711871502</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4429766221161862</v>
+        <v>0.4399685048026447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4740810937140174</v>
+        <v>0.4722551021544802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4314693125372895</v>
+        <v>0.4281739379100563</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.341630892986064</v>
+        <v>0.3347091916242872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2746301926371957</v>
+        <v>0.2774716195974257</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3205425338202275</v>
+        <v>0.3122892219587828</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.225390508378989</v>
+        <v>0.2250237865232113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3981032394649526</v>
+        <v>0.3931262296564165</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3760628997263109</v>
+        <v>0.3733511363197711</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3983422249082114</v>
+        <v>0.4033085704995507</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3395612840962209</v>
+        <v>0.3370053733476209</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3454872644276177</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2671727235663389</v>
+        <v>0.2671727235663388</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2929313190981739</v>
+        <v>0.2929730375122116</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3011608161657532</v>
+        <v>0.3006028459675272</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3379960644557746</v>
+        <v>0.3412647505520734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2538101917546979</v>
+        <v>0.2577914506937753</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1741187511265078</v>
+        <v>0.1711805942929659</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2368328159384022</v>
+        <v>0.2314797213238663</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2466122684548721</v>
+        <v>0.2460331669372814</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.173349020904193</v>
+        <v>0.1749897489476695</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2599930551417655</v>
+        <v>0.2622708617677762</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2884790444559671</v>
+        <v>0.2892655909757978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3121979179808504</v>
+        <v>0.3117120747185457</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2338552104694431</v>
+        <v>0.2330016491666956</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3793283940261686</v>
+        <v>0.3777641123308486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3816480580409383</v>
+        <v>0.3815792362852747</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4276449630396898</v>
+        <v>0.4286766180270912</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3489785836687522</v>
+        <v>0.3503365158106964</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2762375285421497</v>
+        <v>0.2752956612407988</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3346467954572038</v>
+        <v>0.3279954463746911</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3393011043177547</v>
+        <v>0.3437268450669803</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2648900822058324</v>
+        <v>0.268918028373858</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3249609629039916</v>
+        <v>0.3273395386230875</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3479347448769866</v>
+        <v>0.3506320713923575</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3784427572439978</v>
+        <v>0.3778081167092875</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3006622352786921</v>
+        <v>0.3037167241920466</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2264535881965597</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2648698787631402</v>
+        <v>0.2648698787631401</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3276329799892024</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3135985240346013</v>
+        <v>0.3147610132921146</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3112306803340236</v>
+        <v>0.3145683969114337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2668363135482779</v>
+        <v>0.2657009949045491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2577456793995681</v>
+        <v>0.2589861951728309</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2022412009801034</v>
+        <v>0.1970411874734483</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.237035068155499</v>
+        <v>0.2351884208662236</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1846109508559072</v>
+        <v>0.1797618493574969</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.217325392151635</v>
+        <v>0.2176621303574306</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2857522483284768</v>
+        <v>0.2879884115717611</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2906886958752345</v>
+        <v>0.2943265224380856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2429182074349102</v>
+        <v>0.246353110189691</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2559658863522984</v>
+        <v>0.253933534850903</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4182404700717223</v>
+        <v>0.4180859076002295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4074522627794634</v>
+        <v>0.4087518542831721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3605490730260815</v>
+        <v>0.3593943548581744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3668316157111779</v>
+        <v>0.366475319184865</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3301619940136107</v>
+        <v>0.321017574821634</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3363752310186601</v>
+        <v>0.3433272276157495</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.281507699342938</v>
+        <v>0.2776748517186091</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3245437370563425</v>
+        <v>0.3246868941740976</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3683733614749488</v>
+        <v>0.3694811009643093</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3615445404350288</v>
+        <v>0.365145896886814</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3088963310678107</v>
+        <v>0.3110889951249837</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3318752860569794</v>
+        <v>0.3315441491261524</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2958157432259414</v>
+        <v>0.2983897331303127</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3103977855009904</v>
+        <v>0.3052276103448652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2944704102465867</v>
+        <v>0.2897662384832207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3205762594849977</v>
+        <v>0.3194700048349453</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2498418251146644</v>
+        <v>0.2522468430359175</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2451272886126632</v>
+        <v>0.2480353229352866</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2113423345700313</v>
+        <v>0.2151427036877836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2215998228533134</v>
+        <v>0.2199806438984172</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.291348927814444</v>
+        <v>0.2877726238857963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2967203968397818</v>
+        <v>0.2976707435608213</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2688551861246549</v>
+        <v>0.2706363838303198</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2896869450417936</v>
+        <v>0.2871636985242016</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3794769199702214</v>
+        <v>0.3814794143556265</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3963258189266452</v>
+        <v>0.3919660880878837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3794359551862024</v>
+        <v>0.382113584235448</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4097355735539481</v>
+        <v>0.4086456974212758</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.341622784610616</v>
+        <v>0.3465257498982078</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3456969935346174</v>
+        <v>0.3468984972549442</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.307310372454227</v>
+        <v>0.3074908663632113</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3057846855982419</v>
+        <v>0.3027363761671716</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.353537629492354</v>
+        <v>0.3544080970586487</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3586228738248303</v>
+        <v>0.357799557277425</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3311148158837892</v>
+        <v>0.3345254361201551</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3517019083731631</v>
+        <v>0.3498033848487996</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3618991790297297</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2628643810424137</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>126407</v>
+        <v>128095</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>152602</v>
+        <v>151477</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>140761</v>
+        <v>139318</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>99900</v>
+        <v>100383</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>36053</v>
+        <v>36533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35424</v>
+        <v>35419</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>44956</v>
+        <v>44733</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21718</v>
+        <v>21689</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>175846</v>
+        <v>170867</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>197142</v>
+        <v>196229</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>194124</v>
+        <v>192066</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>125256</v>
+        <v>126550</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>165043</v>
+        <v>166383</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>194722</v>
+        <v>193400</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>178763</v>
+        <v>178074</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>134803</v>
+        <v>133774</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>61117</v>
+        <v>59878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>60687</v>
+        <v>61315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71969</v>
+        <v>70115</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40530</v>
+        <v>40464</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>217760</v>
+        <v>215038</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>248409</v>
+        <v>246617</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>239639</v>
+        <v>242627</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>167149</v>
+        <v>165891</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>150556</v>
+        <v>150578</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>186717</v>
+        <v>186371</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>176383</v>
+        <v>178088</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>107039</v>
+        <v>108718</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>48547</v>
+        <v>47728</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>89575</v>
+        <v>87550</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>88354</v>
+        <v>88146</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>48893</v>
+        <v>49356</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>206117</v>
+        <v>207922</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>287963</v>
+        <v>288748</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>274770</v>
+        <v>274343</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>164582</v>
+        <v>163981</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>194961</v>
+        <v>194157</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>236619</v>
+        <v>236576</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>223166</v>
+        <v>223704</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>147175</v>
+        <v>147747</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77019</v>
+        <v>76756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>126570</v>
+        <v>124054</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>121561</v>
+        <v>123147</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74712</v>
+        <v>75848</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>257622</v>
+        <v>259507</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>347312</v>
+        <v>350005</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>333074</v>
+        <v>332515</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>211599</v>
+        <v>213749</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>108451</v>
+        <v>108853</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>140654</v>
+        <v>142162</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>114285</v>
+        <v>113799</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>97103</v>
+        <v>97570</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39056</v>
+        <v>38052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76190</v>
+        <v>75596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>54213</v>
+        <v>52789</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>55137</v>
+        <v>55222</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>154004</v>
+        <v>155210</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>224806</v>
+        <v>227619</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>175377</v>
+        <v>177857</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>161373</v>
+        <v>160091</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>144640</v>
+        <v>144586</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>184139</v>
+        <v>184726</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>154422</v>
+        <v>153928</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>138200</v>
+        <v>138066</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63760</v>
+        <v>61994</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>108120</v>
+        <v>110355</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>82668</v>
+        <v>81543</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>82339</v>
+        <v>82375</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>198533</v>
+        <v>199130</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>279603</v>
+        <v>282388</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>223010</v>
+        <v>224593</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>209229</v>
+        <v>209021</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>144011</v>
+        <v>145264</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>162749</v>
+        <v>160038</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>130045</v>
+        <v>127967</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>139629</v>
+        <v>139147</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>86434</v>
+        <v>87266</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>97047</v>
+        <v>98198</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>77784</v>
+        <v>79183</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75419</v>
+        <v>74868</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>242630</v>
+        <v>239651</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>273050</v>
+        <v>273924</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>217684</v>
+        <v>219126</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>224766</v>
+        <v>222808</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>184739</v>
+        <v>185714</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>207803</v>
+        <v>205517</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>167568</v>
+        <v>168750</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>178463</v>
+        <v>177988</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>118186</v>
+        <v>119882</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>136862</v>
+        <v>137338</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>113105</v>
+        <v>113171</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>104070</v>
+        <v>103032</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>294419</v>
+        <v>295144</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>330014</v>
+        <v>329256</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>268094</v>
+        <v>270856</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>272883</v>
+        <v>271410</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
     </row>
     <row r="24">
